--- a/pdfs/certifications-list.xlsx
+++ b/pdfs/certifications-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_774927D6DB356F99E7ECF074679A58CCE688077B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EEE001-7A1C-40F6-82FB-A859C61F8503}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4B1F3-3859-445E-ACE3-30ED340F77BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="certs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,51 +479,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,6 +491,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -818,26 +818,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
@@ -848,11 +848,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -865,9 +865,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -878,9 +878,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -891,18 +891,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1">
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -913,18 +913,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1">
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -937,9 +937,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
@@ -950,9 +950,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
@@ -963,9 +963,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="16" t="s">
         <v>26</v>
       </c>
@@ -976,9 +976,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
@@ -989,9 +989,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
@@ -1002,9 +1002,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
@@ -1015,10 +1015,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34" t="s">
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1028,42 +1028,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45" customHeight="1">
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1">
+    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15"/>
-    <row r="20" spans="1:5" ht="15"/>
-    <row r="21" spans="1:5" ht="15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
